--- a/submission/RIEPILOGO PESI.xlsx
+++ b/submission/RIEPILOGO PESI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>pesi</t>
   </si>
@@ -38,13 +38,22 @@
     <t>cbf = 0,89  urm = 0,11</t>
   </si>
   <si>
-    <t>cbf = 0,9  urm = 0,1</t>
-  </si>
-  <si>
     <t>cbf = 0,85  urm = 0,15</t>
   </si>
   <si>
     <t>cbf = 0,99  urm = 0,1</t>
+  </si>
+  <si>
+    <t>cbf = 0,87  urm = 0,13</t>
+  </si>
+  <si>
+    <t>cbf = 0,88  urm = 0,12</t>
+  </si>
+  <si>
+    <t>cbf = 0,91  urm = 0,09</t>
+  </si>
+  <si>
+    <t>cbf = 0,90  urm = 0,10</t>
   </si>
 </sst>
 </file>
@@ -376,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,37 +409,52 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>5.0299999999999997E-3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>4.8199999999999996E-3</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>5.0299999999999997E-3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>4.3499999999999997E-2</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>4.3200000000000002E-2</v>
+      <c r="C7">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/submission/RIEPILOGO PESI.xlsx
+++ b/submission/RIEPILOGO PESI.xlsx
@@ -388,7 +388,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,6 +432,9 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>503</v>
+      </c>
       <c r="C5">
         <v>482</v>
       </c>
